--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H2">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>2.604155641506667</v>
+        <v>2.268710229313889</v>
       </c>
       <c r="R2">
-        <v>23.43740077356</v>
+        <v>20.418392063825</v>
       </c>
       <c r="S2">
-        <v>0.002131490249813941</v>
+        <v>0.00171666586113088</v>
       </c>
       <c r="T2">
-        <v>0.002131490249813941</v>
+        <v>0.001716665861130881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H3">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>18.955571827488</v>
+        <v>12.382667626556</v>
       </c>
       <c r="R3">
-        <v>170.600146447392</v>
+        <v>111.444008639004</v>
       </c>
       <c r="S3">
-        <v>0.01551505443298408</v>
+        <v>0.009369597981081886</v>
       </c>
       <c r="T3">
-        <v>0.01551505443298407</v>
+        <v>0.009369597981081886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H4">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.220872668672</v>
+        <v>0.2702703986034445</v>
       </c>
       <c r="R4">
-        <v>1.987854018048</v>
+        <v>2.432433587431</v>
       </c>
       <c r="S4">
-        <v>0.0001807833342297363</v>
+        <v>0.0002045056087648011</v>
       </c>
       <c r="T4">
-        <v>0.0001807833342297363</v>
+        <v>0.0002045056087648011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H5">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I5">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J5">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>4.114160331314666</v>
+        <v>3.180641280112556</v>
       </c>
       <c r="R5">
-        <v>37.027442981832</v>
+        <v>28.625771521013</v>
       </c>
       <c r="S5">
-        <v>0.003367422627356836</v>
+        <v>0.002406697087853352</v>
       </c>
       <c r="T5">
-        <v>0.003367422627356836</v>
+        <v>0.002406697087853352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H6">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I6">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J6">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.1560115010613333</v>
+        <v>0.1329035088206667</v>
       </c>
       <c r="R6">
-        <v>1.404103509552</v>
+        <v>1.196131579386</v>
       </c>
       <c r="S6">
-        <v>0.0001276947460708131</v>
+        <v>0.0001005641502687381</v>
       </c>
       <c r="T6">
-        <v>0.0001276947460708131</v>
+        <v>0.0001005641502687382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H7">
         <v>34.555187</v>
       </c>
       <c r="I7">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J7">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>118.1267723782172</v>
+        <v>157.5371935196306</v>
       </c>
       <c r="R7">
-        <v>1063.140951403955</v>
+        <v>1417.834741676675</v>
       </c>
       <c r="S7">
-        <v>0.09668625774628693</v>
+        <v>0.1192037301543379</v>
       </c>
       <c r="T7">
-        <v>0.09668625774628693</v>
+        <v>0.1192037301543379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H8">
         <v>34.555187</v>
       </c>
       <c r="I8">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J8">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
-        <v>859.8412794056838</v>
+        <v>859.8412794056843</v>
       </c>
       <c r="R8">
-        <v>7738.571514651155</v>
+        <v>7738.571514651157</v>
       </c>
       <c r="S8">
-        <v>0.703776408072293</v>
+        <v>0.6506164389240807</v>
       </c>
       <c r="T8">
-        <v>0.7037764080722929</v>
+        <v>0.6506164389240807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H9">
         <v>34.555187</v>
       </c>
       <c r="I9">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J9">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>10.01897699236267</v>
+        <v>18.76733288247878</v>
       </c>
       <c r="R9">
-        <v>90.170792931264</v>
+        <v>168.905995942309</v>
       </c>
       <c r="S9">
-        <v>0.008200489798672642</v>
+        <v>0.01420068515033477</v>
       </c>
       <c r="T9">
-        <v>0.00820048979867264</v>
+        <v>0.01420068515033477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,14 +1021,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H10">
         <v>34.555187</v>
       </c>
       <c r="I10">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J10">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>186.6219027920778</v>
+        <v>220.8608637574453</v>
       </c>
       <c r="R10">
-        <v>1679.597125128701</v>
+        <v>1987.747773817007</v>
       </c>
       <c r="S10">
-        <v>0.1527492289104875</v>
+        <v>0.1671188766081189</v>
       </c>
       <c r="T10">
-        <v>0.1527492289104874</v>
+        <v>0.1671188766081189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H11">
         <v>34.555187</v>
       </c>
       <c r="I11">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J11">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>7.076817829365109</v>
+        <v>9.228699865672668</v>
       </c>
       <c r="R11">
-        <v>63.69136046428599</v>
+        <v>83.05829879105401</v>
       </c>
       <c r="S11">
-        <v>0.005792345112780609</v>
+        <v>0.006983083955510079</v>
       </c>
       <c r="T11">
-        <v>0.005792345112780608</v>
+        <v>0.00698308395551008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H12">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I12">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J12">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N12">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O12">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P12">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q12">
-        <v>1.401200533991111</v>
+        <v>2.180447935536111</v>
       </c>
       <c r="R12">
-        <v>12.61080480592</v>
+        <v>19.624031419825</v>
       </c>
       <c r="S12">
-        <v>0.001146876641562092</v>
+        <v>0.001649880396598798</v>
       </c>
       <c r="T12">
-        <v>0.001146876641562092</v>
+        <v>0.001649880396598798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H13">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I13">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J13">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
         <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P13">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q13">
-        <v>10.199297209216</v>
+        <v>11.900930191036</v>
       </c>
       <c r="R13">
-        <v>91.793674882944</v>
+        <v>107.108371719324</v>
       </c>
       <c r="S13">
-        <v>0.008348081124606161</v>
+        <v>0.009005081526357732</v>
       </c>
       <c r="T13">
-        <v>0.008348081124606156</v>
+        <v>0.009005081526357732</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H14">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I14">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J14">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N14">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O14">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P14">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q14">
-        <v>0.1188434732373334</v>
+        <v>0.2597557524345556</v>
       </c>
       <c r="R14">
-        <v>1.069591259136</v>
+        <v>2.337801771911</v>
       </c>
       <c r="S14">
-        <v>9.727287433282687E-05</v>
+        <v>0.0001965494873144822</v>
       </c>
       <c r="T14">
-        <v>9.727287433282684E-05</v>
+        <v>0.0001965494873144822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H15">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I15">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J15">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N15">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q15">
-        <v>2.213678614780445</v>
+        <v>3.056901063561444</v>
       </c>
       <c r="R15">
-        <v>19.923107533024</v>
+        <v>27.512109572053</v>
       </c>
       <c r="S15">
-        <v>0.001811886474226341</v>
+        <v>0.002313066529548656</v>
       </c>
       <c r="T15">
-        <v>0.00181188647422634</v>
+        <v>0.002313066529548656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H16">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I16">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J16">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N16">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O16">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P16">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q16">
-        <v>0.08394406045155556</v>
+        <v>0.1277330078073333</v>
       </c>
       <c r="R16">
-        <v>0.7554965440639999</v>
+        <v>1.149597070266</v>
       </c>
       <c r="S16">
-        <v>6.870785429658994E-05</v>
+        <v>9.665178523425939E-05</v>
       </c>
       <c r="T16">
-        <v>6.870785429658991E-05</v>
+        <v>9.66517852342594E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.534416</v>
+      </c>
+      <c r="I17">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J17">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.67700833333333</v>
+      </c>
+      <c r="N17">
+        <v>41.031025</v>
+      </c>
+      <c r="O17">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="P17">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="Q17">
+        <v>2.436404028488889</v>
+      </c>
+      <c r="R17">
+        <v>21.9276362564</v>
+      </c>
+      <c r="S17">
+        <v>0.001843554794079413</v>
+      </c>
+      <c r="T17">
+        <v>0.001843554794079413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.534416</v>
+      </c>
+      <c r="I18">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J18">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N18">
+        <v>223.948188</v>
+      </c>
+      <c r="O18">
+        <v>0.679053278848249</v>
+      </c>
+      <c r="P18">
+        <v>0.6790532788482488</v>
+      </c>
+      <c r="Q18">
+        <v>13.297943870912</v>
+      </c>
+      <c r="R18">
+        <v>119.681494838208</v>
+      </c>
+      <c r="S18">
+        <v>0.01006216041672851</v>
+      </c>
+      <c r="T18">
+        <v>0.01006216041672851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.534416</v>
+      </c>
+      <c r="I19">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J19">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.629335666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.888007</v>
+      </c>
+      <c r="O19">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="P19">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="Q19">
+        <v>0.2902476832124445</v>
+      </c>
+      <c r="R19">
+        <v>2.612229148912</v>
+      </c>
+      <c r="S19">
+        <v>0.0002196218285637205</v>
+      </c>
+      <c r="T19">
+        <v>0.0002196218285637205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.534416</v>
+      </c>
+      <c r="I20">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J20">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.17462033333333</v>
+      </c>
+      <c r="N20">
+        <v>57.523861</v>
+      </c>
+      <c r="O20">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="P20">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="Q20">
+        <v>3.415741300019556</v>
+      </c>
+      <c r="R20">
+        <v>30.741671700176</v>
+      </c>
+      <c r="S20">
+        <v>0.002584590312343106</v>
+      </c>
+      <c r="T20">
+        <v>0.002584590312343106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.534416</v>
+      </c>
+      <c r="I21">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J21">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.801214</v>
+      </c>
+      <c r="N21">
+        <v>2.403642</v>
+      </c>
+      <c r="O21">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="P21">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="Q21">
+        <v>0.1427271936746667</v>
+      </c>
+      <c r="R21">
+        <v>1.284544743072</v>
+      </c>
+      <c r="S21">
+        <v>0.000107997441749277</v>
+      </c>
+      <c r="T21">
+        <v>0.000107997441749277</v>
       </c>
     </row>
   </sheetData>
